--- a/data/long_razon/P18_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_6-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-37,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 43,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-62,07; 3,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 12,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 14,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 121,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 77,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 13,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 52,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 32,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,31; -3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 60,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,72; 150,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -20,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 78,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 50,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,72; -20,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 56,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 80,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-44,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-36,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>131,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-40,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 124,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 46,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,51; -20,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,26; 206,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 14,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,4; -26,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>55,08; 138,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 19,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -15,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 49,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 51,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,42; -21,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,96; 97,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 29,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,02; -23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,72; 63,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 33,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_6-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.09528513814675578</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3634353911331216</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1974409118183144</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.9754893786231024</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0.07373342533225639</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6331009628339488</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.209945568788649</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.4611080872400719</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>0.0001892516126886687</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1674769085035664</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.001685540113032905</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.6454839047215807</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4840023361928535</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6203475710617761</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.504375213830478</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1676067373099167</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.2621518265195864</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.08800133193122971</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.06069179845287664</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.02770711316295609</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.2971758300496311</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1316318526639094</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.2400317415353851</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.2057480060916413</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.5747006274914607</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.07156566346361107</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.09145514425492524</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.663766574618915</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>0.73308948111315</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.411101705587798</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.7424365287865614</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.08336990356399</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.4150643255085814</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.6125399080139841</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.2631740508791082</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.288564171926572</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.325189359630153</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1945303310543656</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9209005864490063</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2913545896883659</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.3619375764011908</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3678318520531447</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2360205450744146</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.04513095561216297</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>-0.3454259598507155</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.284539491310441</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.5244805198704112</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.1145562103809343</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5305091134216999</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1857132119282089</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.503504940979051</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.02041424710629172</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.5261559747420991</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.08693371802898209</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.01105050164544915</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2351065110646524</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.4767359617973921</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.05320672995974519</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0.3027354042311067</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.07499765589358397</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.02615554770012427</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6330586668524341</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.562342044590349</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.8521626223755631</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>-0.1702702782089673</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7631481702443504</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5431326143491551</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2177122536936051</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>-0.1975890547217014</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.5685679059241249</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.8265862380119563</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.3644520699579974</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.5457407492685441</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6592413889039593</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1330610965067971</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2006528774058345</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.4118333031326202</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.643774359661068</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.08747695357992316</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.07398375110018506</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.471357345807443</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1.07026089870391</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.01014333595166224</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.05411807440336811</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6954247329821481</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1935424102350237</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1324684016365337</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1007651079151245</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.5543011489313695</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.9695107322049279</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2560245572811408</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2921793527350064</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.5797143933478747</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.6421223655293538</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1408896411137368</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1393796773747443</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.3040930453284685</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.314433391214489</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4917160533874577</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.6234710092987557</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.1934339244419579</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.540088626850376</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.1452310489919991</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1707287583654376</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.3232128970722132</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.594571666599032</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2017579317368573</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.2857106320925078</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.3706454247596642</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2379954016929747</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3151853698522515</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3550827222922167</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.3182031742775286</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7265901721160226</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1171567979790964</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.05050292353316599</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>-0.3415766066101736</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4792431689515342</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.2068571070616108</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.1878534724541354</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.514038234766524</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.00509952396977104</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.09302840529280534</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.08521869835747427</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.4250090818131428</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.4618353306723407</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.02446417699817734</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1050777018511896</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.436705536450072</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2841026180977503</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0.08534782793727187</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.05258729343759939</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.1724525645854975</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5313185705347492</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5795104307723955</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6665396892697182</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>-0.1688043340953791</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.036715018565043</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2786249066837645</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2412315521434951</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>-0.2399543523757654</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.704422018496359</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.3580446533079411</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.3717043253516852</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
